--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tac2-Tacr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tac2-Tacr2.xlsx
@@ -540,40 +540,40 @@
         <v>0.610055</v>
       </c>
       <c r="I2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="J2">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.106636</v>
+        <v>0.190825</v>
       </c>
       <c r="N2">
-        <v>0.319908</v>
+        <v>0.572475</v>
       </c>
       <c r="O2">
-        <v>0.5420864808808727</v>
+        <v>0.6793270274792366</v>
       </c>
       <c r="P2">
-        <v>0.5420864808808727</v>
+        <v>0.6793270274792366</v>
       </c>
       <c r="Q2">
-        <v>0.02168460832666667</v>
+        <v>0.03880458179166667</v>
       </c>
       <c r="R2">
-        <v>0.19516147494</v>
+        <v>0.349241236125</v>
       </c>
       <c r="S2">
-        <v>0.4183857647389453</v>
+        <v>0.3064426047034455</v>
       </c>
       <c r="T2">
-        <v>0.4183857647389453</v>
+        <v>0.3064426047034455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.610055</v>
       </c>
       <c r="I3">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="J3">
-        <v>0.7718063067337192</v>
+        <v>0.4510973247164258</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,16 +614,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09007800000000001</v>
+        <v>0.09007799999999999</v>
       </c>
       <c r="N3">
         <v>0.270234</v>
       </c>
       <c r="O3">
-        <v>0.4579135191191273</v>
+        <v>0.3206729725207633</v>
       </c>
       <c r="P3">
-        <v>0.4579135191191274</v>
+        <v>0.3206729725207634</v>
       </c>
       <c r="Q3">
         <v>0.01831751143</v>
@@ -632,10 +632,10 @@
         <v>0.16485760287</v>
       </c>
       <c r="S3">
-        <v>0.353420541994774</v>
+        <v>0.1446547200129803</v>
       </c>
       <c r="T3">
-        <v>0.353420541994774</v>
+        <v>0.1446547200129803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2474416666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.742325</v>
+      </c>
+      <c r="I4">
+        <v>0.5489026752835741</v>
+      </c>
+      <c r="J4">
+        <v>0.5489026752835741</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.06012333333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.18037</v>
-      </c>
-      <c r="I4">
-        <v>0.2281936932662808</v>
-      </c>
-      <c r="J4">
-        <v>0.2281936932662808</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.106636</v>
+        <v>0.190825</v>
       </c>
       <c r="N4">
-        <v>0.319908</v>
+        <v>0.572475</v>
       </c>
       <c r="O4">
-        <v>0.5420864808808727</v>
+        <v>0.6793270274792366</v>
       </c>
       <c r="P4">
-        <v>0.5420864808808727</v>
+        <v>0.6793270274792366</v>
       </c>
       <c r="Q4">
-        <v>0.006411311773333333</v>
+        <v>0.04721805604166666</v>
       </c>
       <c r="R4">
-        <v>0.05770180596</v>
+        <v>0.424962504375</v>
       </c>
       <c r="S4">
-        <v>0.1237007161419275</v>
+        <v>0.372884422775791</v>
       </c>
       <c r="T4">
-        <v>0.1237007161419275</v>
+        <v>0.372884422775791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06012333333333333</v>
+        <v>0.2474416666666667</v>
       </c>
       <c r="H5">
-        <v>0.18037</v>
+        <v>0.742325</v>
       </c>
       <c r="I5">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
       <c r="J5">
-        <v>0.2281936932662808</v>
+        <v>0.5489026752835741</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09007800000000001</v>
+        <v>0.09007799999999999</v>
       </c>
       <c r="N5">
         <v>0.270234</v>
       </c>
       <c r="O5">
-        <v>0.4579135191191273</v>
+        <v>0.3206729725207633</v>
       </c>
       <c r="P5">
-        <v>0.4579135191191274</v>
+        <v>0.3206729725207634</v>
       </c>
       <c r="Q5">
-        <v>0.00541578962</v>
+        <v>0.02228905045</v>
       </c>
       <c r="R5">
-        <v>0.04874210658000001</v>
+        <v>0.20060145405</v>
       </c>
       <c r="S5">
-        <v>0.1044929771243533</v>
+        <v>0.176018252507783</v>
       </c>
       <c r="T5">
-        <v>0.1044929771243533</v>
+        <v>0.1760182525077831</v>
       </c>
     </row>
   </sheetData>
